--- a/__repository/template/temp_siteinfo.xlsx
+++ b/__repository/template/temp_siteinfo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>TEMPLATE UPLOAD SITE INFORMATION</t>
   </si>
@@ -102,6 +102,51 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>Sby</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>SBY</t>
+  </si>
+  <si>
+    <t>SBY01</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>27NEWCJ</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>cba</t>
+  </si>
+  <si>
+    <t>dbc</t>
+  </si>
+  <si>
+    <t>gih</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>jik</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
 </sst>
 </file>
@@ -208,14 +253,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -232,6 +271,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -514,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,97 +592,280 @@
     <col min="22" max="22" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9">
+        <v>123</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>123</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9">
+        <v>123</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
